--- a/prueba_tipo_cambio_argentina.xlsx
+++ b/prueba_tipo_cambio_argentina.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,10 +559,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46043</v>
+        <v>46048</v>
       </c>
       <c r="C2" t="n">
-        <v>1506.32</v>
+        <v>1515.03</v>
       </c>
     </row>
     <row r="3">
@@ -570,10 +570,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46042</v>
+        <v>46047</v>
       </c>
       <c r="C3" t="n">
-        <v>1515</v>
+        <v>1507.77</v>
       </c>
     </row>
     <row r="4">
@@ -581,10 +581,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46041</v>
+        <v>46046</v>
       </c>
       <c r="C4" t="n">
-        <v>1512.63</v>
+        <v>1507.77</v>
       </c>
     </row>
     <row r="5">
@@ -592,10 +592,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46040</v>
+        <v>46045</v>
       </c>
       <c r="C5" t="n">
-        <v>1519.73</v>
+        <v>1505.91</v>
       </c>
     </row>
     <row r="6">
@@ -603,10 +603,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>46039</v>
+        <v>46044</v>
       </c>
       <c r="C6" t="n">
-        <v>1519.73</v>
+        <v>1504.11</v>
       </c>
     </row>
     <row r="7">
@@ -614,10 +614,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>46038</v>
+        <v>46043</v>
       </c>
       <c r="C7" t="n">
-        <v>1519.73</v>
+        <v>1506.32</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>46037</v>
+        <v>46042</v>
       </c>
       <c r="C8" t="n">
-        <v>1515.32</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="9">
@@ -636,10 +636,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>46036</v>
+        <v>46041</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.86</v>
+        <v>1512.63</v>
       </c>
     </row>
     <row r="10">
@@ -647,10 +647,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>46035</v>
+        <v>46040</v>
       </c>
       <c r="C10" t="n">
-        <v>1522.32</v>
+        <v>1519.73</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>46034</v>
+        <v>46039</v>
       </c>
       <c r="C11" t="n">
-        <v>1528.37</v>
+        <v>1519.73</v>
       </c>
     </row>
     <row r="12">
@@ -669,10 +669,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>46033</v>
+        <v>46038</v>
       </c>
       <c r="C12" t="n">
-        <v>1528.86</v>
+        <v>1519.73</v>
       </c>
     </row>
     <row r="13">
@@ -680,10 +680,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>46032</v>
+        <v>46037</v>
       </c>
       <c r="C13" t="n">
-        <v>1528.86</v>
+        <v>1515.32</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>46031</v>
+        <v>46036</v>
       </c>
       <c r="C14" t="n">
-        <v>1528.86</v>
+        <v>1527.86</v>
       </c>
     </row>
     <row r="15">
@@ -702,10 +702,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>46030</v>
+        <v>46035</v>
       </c>
       <c r="C15" t="n">
-        <v>1530.92</v>
+        <v>1522.32</v>
       </c>
     </row>
     <row r="16">
@@ -713,10 +713,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>46029</v>
+        <v>46034</v>
       </c>
       <c r="C16" t="n">
-        <v>1533.17</v>
+        <v>1528.37</v>
       </c>
     </row>
     <row r="17">
@@ -724,10 +724,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>46028</v>
+        <v>46033</v>
       </c>
       <c r="C17" t="n">
-        <v>1539.65</v>
+        <v>1528.86</v>
       </c>
     </row>
     <row r="18">
@@ -735,10 +735,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="C18" t="n">
-        <v>1544.75</v>
+        <v>1528.86</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>46026</v>
+        <v>46031</v>
       </c>
       <c r="C19" t="n">
-        <v>1545.86</v>
+        <v>1528.86</v>
       </c>
     </row>
     <row r="20">
@@ -757,10 +757,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="C20" t="n">
-        <v>1545.86</v>
+        <v>1530.92</v>
       </c>
     </row>
     <row r="21">
@@ -768,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>46024</v>
+        <v>46029</v>
       </c>
       <c r="C21" t="n">
-        <v>1545.86</v>
+        <v>1533.17</v>
       </c>
     </row>
     <row r="22">
@@ -779,10 +779,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>46023</v>
+        <v>46028</v>
       </c>
       <c r="C22" t="n">
-        <v>1524.82</v>
+        <v>1539.65</v>
       </c>
     </row>
     <row r="23">
@@ -790,10 +790,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="C23" t="n">
-        <v>1524.82</v>
+        <v>1544.75</v>
       </c>
     </row>
     <row r="24">
@@ -801,10 +801,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>46021</v>
+        <v>46026</v>
       </c>
       <c r="C24" t="n">
-        <v>1521.34</v>
+        <v>1545.86</v>
       </c>
     </row>
     <row r="25">
@@ -812,10 +812,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>46020</v>
+        <v>46025</v>
       </c>
       <c r="C25" t="n">
-        <v>1527.22</v>
+        <v>1545.86</v>
       </c>
     </row>
     <row r="26">
@@ -823,10 +823,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>46019</v>
+        <v>46024</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.7</v>
+        <v>1545.86</v>
       </c>
     </row>
     <row r="27">
@@ -834,10 +834,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>46018</v>
+        <v>46023</v>
       </c>
       <c r="C27" t="n">
-        <v>1530.7</v>
+        <v>1524.82</v>
       </c>
     </row>
     <row r="28">
@@ -845,10 +845,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="C28" t="n">
-        <v>1530.7</v>
+        <v>1524.82</v>
       </c>
     </row>
     <row r="29">
@@ -856,10 +856,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>46016</v>
+        <v>46021</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.89</v>
+        <v>1521.34</v>
       </c>
     </row>
     <row r="30">
@@ -867,10 +867,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="C30" t="n">
-        <v>1526.89</v>
+        <v>1527.22</v>
       </c>
     </row>
     <row r="31">
@@ -878,7 +878,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>46014</v>
+        <v>46019</v>
       </c>
       <c r="C31" t="n">
         <v>1530.7</v>
@@ -889,10 +889,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>46013</v>
+        <v>46018</v>
       </c>
       <c r="C32" t="n">
-        <v>1542.52</v>
+        <v>1530.7</v>
       </c>
     </row>
     <row r="33">
@@ -900,10 +900,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>46012</v>
+        <v>46017</v>
       </c>
       <c r="C33" t="n">
-        <v>1555.81</v>
+        <v>1530.7</v>
       </c>
     </row>
     <row r="34">
@@ -911,10 +911,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>46011</v>
+        <v>46016</v>
       </c>
       <c r="C34" t="n">
-        <v>1555.81</v>
+        <v>1526.89</v>
       </c>
     </row>
     <row r="35">
@@ -922,10 +922,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>46010</v>
+        <v>46015</v>
       </c>
       <c r="C35" t="n">
-        <v>1555.81</v>
+        <v>1526.89</v>
       </c>
     </row>
     <row r="36">
@@ -933,10 +933,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="C36" t="n">
-        <v>1552.02</v>
+        <v>1530.7</v>
       </c>
     </row>
     <row r="37">
@@ -944,10 +944,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="C37" t="n">
-        <v>1556.53</v>
+        <v>1542.52</v>
       </c>
     </row>
     <row r="38">
@@ -955,10 +955,10 @@
         <v>22</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>46007</v>
+        <v>46012</v>
       </c>
       <c r="C38" t="n">
-        <v>1544.69</v>
+        <v>1555.81</v>
       </c>
     </row>
     <row r="39">
@@ -966,10 +966,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>46006</v>
+        <v>46011</v>
       </c>
       <c r="C39" t="n">
-        <v>1528.81</v>
+        <v>1555.81</v>
       </c>
     </row>
     <row r="40">
@@ -977,10 +977,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>46005</v>
+        <v>46010</v>
       </c>
       <c r="C40" t="n">
-        <v>1508.79</v>
+        <v>1555.81</v>
       </c>
     </row>
     <row r="41">
@@ -988,10 +988,10 @@
         <v>22</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>46004</v>
+        <v>46009</v>
       </c>
       <c r="C41" t="n">
-        <v>1508.79</v>
+        <v>1552.02</v>
       </c>
     </row>
     <row r="42">
@@ -999,10 +999,10 @@
         <v>22</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>46003</v>
+        <v>46008</v>
       </c>
       <c r="C42" t="n">
-        <v>1508.79</v>
+        <v>1556.53</v>
       </c>
     </row>
     <row r="43">
@@ -1010,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="C43" t="n">
-        <v>1508.46</v>
+        <v>1544.69</v>
       </c>
     </row>
     <row r="44">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>46001</v>
+        <v>46006</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.94</v>
+        <v>1528.81</v>
       </c>
     </row>
     <row r="45">
@@ -1032,10 +1032,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>46000</v>
+        <v>46005</v>
       </c>
       <c r="C45" t="n">
-        <v>1508.06</v>
+        <v>1508.79</v>
       </c>
     </row>
     <row r="46">
@@ -1043,10 +1043,10 @@
         <v>22</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45999</v>
+        <v>46004</v>
       </c>
       <c r="C46" t="n">
-        <v>1507.47</v>
+        <v>1508.79</v>
       </c>
     </row>
     <row r="47">
@@ -1054,10 +1054,10 @@
         <v>22</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="C47" t="n">
-        <v>1512.86</v>
+        <v>1508.79</v>
       </c>
     </row>
     <row r="48">
@@ -1065,10 +1065,10 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C48" t="n">
-        <v>1512.86</v>
+        <v>1508.46</v>
       </c>
     </row>
     <row r="49">
@@ -1076,10 +1076,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="C49" t="n">
-        <v>1512.86</v>
+        <v>1496.94</v>
       </c>
     </row>
     <row r="50">
@@ -1087,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="C50" t="n">
-        <v>1511</v>
+        <v>1508.06</v>
       </c>
     </row>
     <row r="51">
@@ -1098,10 +1098,10 @@
         <v>22</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C51" t="n">
-        <v>1508.97</v>
+        <v>1507.47</v>
       </c>
     </row>
     <row r="52">
@@ -1109,10 +1109,10 @@
         <v>22</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="C52" t="n">
-        <v>1519.74</v>
+        <v>1512.86</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         <v>22</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="C53" t="n">
-        <v>1496.85</v>
+        <v>1512.86</v>
       </c>
     </row>
     <row r="54">
@@ -1131,10 +1131,10 @@
         <v>22</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45991</v>
+        <v>45996</v>
       </c>
       <c r="C54" t="n">
-        <v>1518.74</v>
+        <v>1512.86</v>
       </c>
     </row>
     <row r="55">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45990</v>
+        <v>45995</v>
       </c>
       <c r="C55" t="n">
-        <v>1518.74</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="56">
@@ -1153,10 +1153,10 @@
         <v>22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45989</v>
+        <v>45994</v>
       </c>
       <c r="C56" t="n">
-        <v>1518.74</v>
+        <v>1508.97</v>
       </c>
     </row>
     <row r="57">
@@ -1164,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="C57" t="n">
-        <v>1523.74</v>
+        <v>1519.74</v>
       </c>
     </row>
     <row r="58">
@@ -1175,10 +1175,10 @@
         <v>22</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
       <c r="C58" t="n">
-        <v>1532.66</v>
+        <v>1496.85</v>
       </c>
     </row>
     <row r="59">
@@ -1186,10 +1186,10 @@
         <v>22</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45986</v>
+        <v>45991</v>
       </c>
       <c r="C59" t="n">
-        <v>1521.83</v>
+        <v>1518.74</v>
       </c>
     </row>
     <row r="60">
@@ -1197,10 +1197,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45985</v>
+        <v>45990</v>
       </c>
       <c r="C60" t="n">
-        <v>1509.85</v>
+        <v>1518.74</v>
       </c>
     </row>
     <row r="61">
@@ -1208,10 +1208,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45984</v>
+        <v>45989</v>
       </c>
       <c r="C61" t="n">
-        <v>1502.4</v>
+        <v>1518.74</v>
       </c>
     </row>
     <row r="62">
@@ -1219,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45983</v>
+        <v>45988</v>
       </c>
       <c r="C62" t="n">
-        <v>1502.4</v>
+        <v>1523.74</v>
       </c>
     </row>
     <row r="63">
@@ -1230,10 +1230,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45982</v>
+        <v>45987</v>
       </c>
       <c r="C63" t="n">
-        <v>1502.4</v>
+        <v>1532.66</v>
       </c>
     </row>
     <row r="64">
@@ -1241,10 +1241,10 @@
         <v>22</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45981</v>
+        <v>45986</v>
       </c>
       <c r="C64" t="n">
-        <v>1492.07</v>
+        <v>1521.83</v>
       </c>
     </row>
     <row r="65">
@@ -1252,10 +1252,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45980</v>
+        <v>45985</v>
       </c>
       <c r="C65" t="n">
-        <v>1472.37</v>
+        <v>1509.85</v>
       </c>
     </row>
     <row r="66">
@@ -1263,10 +1263,10 @@
         <v>22</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45979</v>
+        <v>45984</v>
       </c>
       <c r="C66" t="n">
-        <v>1471.5</v>
+        <v>1502.4</v>
       </c>
     </row>
     <row r="67">
@@ -1274,10 +1274,10 @@
         <v>22</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45978</v>
+        <v>45983</v>
       </c>
       <c r="C67" t="n">
-        <v>1494.06</v>
+        <v>1502.4</v>
       </c>
     </row>
     <row r="68">
@@ -1285,10 +1285,10 @@
         <v>22</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45977</v>
+        <v>45982</v>
       </c>
       <c r="C68" t="n">
-        <v>1483.98</v>
+        <v>1502.4</v>
       </c>
     </row>
     <row r="69">
@@ -1296,10 +1296,10 @@
         <v>22</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45976</v>
+        <v>45981</v>
       </c>
       <c r="C69" t="n">
-        <v>1483.98</v>
+        <v>1492.07</v>
       </c>
     </row>
     <row r="70">
@@ -1307,10 +1307,10 @@
         <v>22</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45975</v>
+        <v>45980</v>
       </c>
       <c r="C70" t="n">
-        <v>1483.98</v>
+        <v>1472.37</v>
       </c>
     </row>
     <row r="71">
@@ -1318,10 +1318,10 @@
         <v>22</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="C71" t="n">
-        <v>1486.56</v>
+        <v>1471.5</v>
       </c>
     </row>
     <row r="72">
@@ -1329,10 +1329,10 @@
         <v>22</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="C72" t="n">
-        <v>1477.42</v>
+        <v>1494.06</v>
       </c>
     </row>
     <row r="73">
@@ -1340,10 +1340,10 @@
         <v>22</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="C73" t="n">
-        <v>1476.05</v>
+        <v>1483.98</v>
       </c>
     </row>
     <row r="74">
@@ -1351,10 +1351,10 @@
         <v>22</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45971</v>
+        <v>45976</v>
       </c>
       <c r="C74" t="n">
-        <v>1476.89</v>
+        <v>1483.98</v>
       </c>
     </row>
     <row r="75">
@@ -1362,10 +1362,10 @@
         <v>22</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="C75" t="n">
-        <v>1471.3</v>
+        <v>1483.98</v>
       </c>
     </row>
     <row r="76">
@@ -1373,10 +1373,10 @@
         <v>22</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45969</v>
+        <v>45974</v>
       </c>
       <c r="C76" t="n">
-        <v>1471.3</v>
+        <v>1486.56</v>
       </c>
     </row>
     <row r="77">
@@ -1384,10 +1384,10 @@
         <v>22</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="C77" t="n">
-        <v>1471.3</v>
+        <v>1477.42</v>
       </c>
     </row>
     <row r="78">
@@ -1395,10 +1395,10 @@
         <v>22</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45967</v>
+        <v>45972</v>
       </c>
       <c r="C78" t="n">
-        <v>1493.63</v>
+        <v>1476.05</v>
       </c>
     </row>
     <row r="79">
@@ -1406,10 +1406,10 @@
         <v>22</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45966</v>
+        <v>45971</v>
       </c>
       <c r="C79" t="n">
-        <v>1495.4</v>
+        <v>1476.89</v>
       </c>
     </row>
     <row r="80">
@@ -1417,10 +1417,10 @@
         <v>22</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45965</v>
+        <v>45970</v>
       </c>
       <c r="C80" t="n">
-        <v>1513.25</v>
+        <v>1471.3</v>
       </c>
     </row>
     <row r="81">
@@ -1428,10 +1428,10 @@
         <v>22</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45964</v>
+        <v>45969</v>
       </c>
       <c r="C81" t="n">
-        <v>1521.99</v>
+        <v>1471.3</v>
       </c>
     </row>
     <row r="82">
@@ -1439,10 +1439,10 @@
         <v>22</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45963</v>
+        <v>45968</v>
       </c>
       <c r="C82" t="n">
-        <v>1506.53</v>
+        <v>1471.3</v>
       </c>
     </row>
     <row r="83">
@@ -1450,10 +1450,10 @@
         <v>22</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45962</v>
+        <v>45967</v>
       </c>
       <c r="C83" t="n">
-        <v>1506.53</v>
+        <v>1493.63</v>
       </c>
     </row>
     <row r="84">
@@ -1461,10 +1461,10 @@
         <v>22</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45961</v>
+        <v>45966</v>
       </c>
       <c r="C84" t="n">
-        <v>1506.53</v>
+        <v>1495.4</v>
       </c>
     </row>
     <row r="85">
@@ -1472,10 +1472,10 @@
         <v>22</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="C85" t="n">
-        <v>1491.01</v>
+        <v>1513.25</v>
       </c>
     </row>
     <row r="86">
@@ -1483,10 +1483,10 @@
         <v>22</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45959</v>
+        <v>45964</v>
       </c>
       <c r="C86" t="n">
-        <v>1487.2</v>
+        <v>1521.99</v>
       </c>
     </row>
     <row r="87">
@@ -1494,10 +1494,10 @@
         <v>22</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45958</v>
+        <v>45963</v>
       </c>
       <c r="C87" t="n">
-        <v>1485.89</v>
+        <v>1506.53</v>
       </c>
     </row>
     <row r="88">
@@ -1505,10 +1505,10 @@
         <v>22</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45957</v>
+        <v>45962</v>
       </c>
       <c r="C88" t="n">
-        <v>1459.46</v>
+        <v>1506.53</v>
       </c>
     </row>
     <row r="89">
@@ -1516,10 +1516,10 @@
         <v>22</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45956</v>
+        <v>45961</v>
       </c>
       <c r="C89" t="n">
-        <v>1567.21</v>
+        <v>1506.53</v>
       </c>
     </row>
     <row r="90">
@@ -1527,10 +1527,10 @@
         <v>22</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45955</v>
+        <v>45960</v>
       </c>
       <c r="C90" t="n">
-        <v>1567.21</v>
+        <v>1491.01</v>
       </c>
     </row>
     <row r="91">
@@ -1538,10 +1538,10 @@
         <v>22</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="C91" t="n">
-        <v>1567.21</v>
+        <v>1487.2</v>
       </c>
     </row>
     <row r="92">
@@ -1549,10 +1549,10 @@
         <v>22</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45953</v>
+        <v>45958</v>
       </c>
       <c r="C92" t="n">
-        <v>1551.33</v>
+        <v>1485.89</v>
       </c>
     </row>
     <row r="93">
@@ -1560,10 +1560,10 @@
         <v>22</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C93" t="n">
-        <v>1612.06</v>
+        <v>1459.46</v>
       </c>
     </row>
     <row r="94">
@@ -1571,10 +1571,10 @@
         <v>22</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45951</v>
+        <v>45956</v>
       </c>
       <c r="C94" t="n">
-        <v>1607.69</v>
+        <v>1567.21</v>
       </c>
     </row>
     <row r="95">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45950</v>
+        <v>45955</v>
       </c>
       <c r="C95" t="n">
-        <v>1569.99</v>
+        <v>1567.21</v>
       </c>
     </row>
     <row r="96">
@@ -1593,10 +1593,10 @@
         <v>22</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45949</v>
+        <v>45954</v>
       </c>
       <c r="C96" t="n">
-        <v>1543.69</v>
+        <v>1567.21</v>
       </c>
     </row>
     <row r="97">
@@ -1604,10 +1604,10 @@
         <v>22</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45948</v>
+        <v>45953</v>
       </c>
       <c r="C97" t="n">
-        <v>1543.69</v>
+        <v>1551.33</v>
       </c>
     </row>
     <row r="98">
@@ -1615,10 +1615,10 @@
         <v>22</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C98" t="n">
-        <v>1543.69</v>
+        <v>1612.06</v>
       </c>
     </row>
     <row r="99">
@@ -1626,10 +1626,10 @@
         <v>22</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45946</v>
+        <v>45951</v>
       </c>
       <c r="C99" t="n">
-        <v>1491.34</v>
+        <v>1607.69</v>
       </c>
     </row>
     <row r="100">
@@ -1637,10 +1637,10 @@
         <v>22</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="C100" t="n">
-        <v>1461.69</v>
+        <v>1569.99</v>
       </c>
     </row>
     <row r="101">
@@ -1648,10 +1648,10 @@
         <v>22</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45944</v>
+        <v>45949</v>
       </c>
       <c r="C101" t="n">
-        <v>1475.34</v>
+        <v>1543.69</v>
       </c>
     </row>
     <row r="102">
@@ -1659,10 +1659,10 @@
         <v>22</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45943</v>
+        <v>45948</v>
       </c>
       <c r="C102" t="n">
-        <v>1440.12</v>
+        <v>1543.69</v>
       </c>
     </row>
     <row r="103">
@@ -1670,10 +1670,10 @@
         <v>22</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>45942</v>
+        <v>45947</v>
       </c>
       <c r="C103" t="n">
-        <v>1438.69</v>
+        <v>1543.69</v>
       </c>
     </row>
     <row r="104">
@@ -1681,10 +1681,10 @@
         <v>22</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45941</v>
+        <v>45946</v>
       </c>
       <c r="C104" t="n">
-        <v>1438.69</v>
+        <v>1491.34</v>
       </c>
     </row>
     <row r="105">
@@ -1692,10 +1692,10 @@
         <v>22</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45940</v>
+        <v>45945</v>
       </c>
       <c r="C105" t="n">
-        <v>1438.69</v>
+        <v>1461.69</v>
       </c>
     </row>
     <row r="106">
@@ -1703,10 +1703,10 @@
         <v>22</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45939</v>
+        <v>45944</v>
       </c>
       <c r="C106" t="n">
-        <v>1453.22</v>
+        <v>1475.34</v>
       </c>
     </row>
     <row r="107">
@@ -1714,10 +1714,10 @@
         <v>22</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="C107" t="n">
-        <v>1543.41</v>
+        <v>1440.12</v>
       </c>
     </row>
     <row r="108">
@@ -1725,10 +1725,10 @@
         <v>22</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45937</v>
+        <v>45942</v>
       </c>
       <c r="C108" t="n">
-        <v>1560.11</v>
+        <v>1438.69</v>
       </c>
     </row>
     <row r="109">
@@ -1736,10 +1736,10 @@
         <v>22</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45936</v>
+        <v>45941</v>
       </c>
       <c r="C109" t="n">
-        <v>1516.64</v>
+        <v>1438.69</v>
       </c>
     </row>
     <row r="110">
@@ -1747,10 +1747,10 @@
         <v>22</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45935</v>
+        <v>45940</v>
       </c>
       <c r="C110" t="n">
-        <v>1525.88</v>
+        <v>1438.69</v>
       </c>
     </row>
     <row r="111">
@@ -1758,10 +1758,10 @@
         <v>22</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45934</v>
+        <v>45939</v>
       </c>
       <c r="C111" t="n">
-        <v>1525.88</v>
+        <v>1453.22</v>
       </c>
     </row>
     <row r="112">
@@ -1769,10 +1769,10 @@
         <v>22</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45933</v>
+        <v>45938</v>
       </c>
       <c r="C112" t="n">
-        <v>1525.88</v>
+        <v>1543.41</v>
       </c>
     </row>
     <row r="113">
@@ -1780,10 +1780,10 @@
         <v>22</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="C113" t="n">
-        <v>1548.41</v>
+        <v>1560.11</v>
       </c>
     </row>
     <row r="114">
@@ -1791,10 +1791,10 @@
         <v>22</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45931</v>
+        <v>45936</v>
       </c>
       <c r="C114" t="n">
-        <v>1573.08</v>
+        <v>1516.64</v>
       </c>
     </row>
     <row r="115">
@@ -1802,10 +1802,10 @@
         <v>22</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45930</v>
+        <v>45935</v>
       </c>
       <c r="C115" t="n">
-        <v>1541.77</v>
+        <v>1525.88</v>
       </c>
     </row>
     <row r="116">
@@ -1813,10 +1813,10 @@
         <v>22</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45929</v>
+        <v>45934</v>
       </c>
       <c r="C116" t="n">
-        <v>1496.06</v>
+        <v>1525.88</v>
       </c>
     </row>
     <row r="117">
@@ -1824,10 +1824,10 @@
         <v>22</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>45928</v>
+        <v>45933</v>
       </c>
       <c r="C117" t="n">
-        <v>1470.23</v>
+        <v>1525.88</v>
       </c>
     </row>
     <row r="118">
@@ -1835,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45927</v>
+        <v>45932</v>
       </c>
       <c r="C118" t="n">
-        <v>1470.23</v>
+        <v>1548.41</v>
       </c>
     </row>
     <row r="119">
@@ -1846,10 +1846,10 @@
         <v>22</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45926</v>
+        <v>45931</v>
       </c>
       <c r="C119" t="n">
-        <v>1470.23</v>
+        <v>1573.08</v>
       </c>
     </row>
     <row r="120">
@@ -1857,10 +1857,10 @@
         <v>22</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="C120" t="n">
-        <v>1403.46</v>
+        <v>1541.77</v>
       </c>
     </row>
     <row r="121">
@@ -1868,10 +1868,10 @@
         <v>22</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>45924</v>
+        <v>45929</v>
       </c>
       <c r="C121" t="n">
-        <v>1391.27</v>
+        <v>1496.06</v>
       </c>
     </row>
     <row r="122">
@@ -1879,10 +1879,10 @@
         <v>22</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45923</v>
+        <v>45928</v>
       </c>
       <c r="C122" t="n">
-        <v>1415.08</v>
+        <v>1470.23</v>
       </c>
     </row>
     <row r="123">
@@ -1890,10 +1890,10 @@
         <v>22</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45922</v>
+        <v>45927</v>
       </c>
       <c r="C123" t="n">
-        <v>1440.87</v>
+        <v>1470.23</v>
       </c>
     </row>
     <row r="124">
@@ -1901,10 +1901,10 @@
         <v>22</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45921</v>
+        <v>45926</v>
       </c>
       <c r="C124" t="n">
-        <v>1567.06</v>
+        <v>1470.23</v>
       </c>
     </row>
     <row r="125">
@@ -1912,10 +1912,10 @@
         <v>22</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45920</v>
+        <v>45925</v>
       </c>
       <c r="C125" t="n">
-        <v>1567.06</v>
+        <v>1403.46</v>
       </c>
     </row>
     <row r="126">
@@ -1923,10 +1923,10 @@
         <v>22</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="C126" t="n">
-        <v>1567.06</v>
+        <v>1391.27</v>
       </c>
     </row>
     <row r="127">
@@ -1934,10 +1934,10 @@
         <v>22</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="C127" t="n">
-        <v>1564.1</v>
+        <v>1415.08</v>
       </c>
     </row>
     <row r="128">
@@ -1945,10 +1945,10 @@
         <v>22</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="C128" t="n">
-        <v>1499.85</v>
+        <v>1440.87</v>
       </c>
     </row>
     <row r="129">
@@ -1956,10 +1956,10 @@
         <v>22</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>45916</v>
+        <v>45921</v>
       </c>
       <c r="C129" t="n">
-        <v>1482.49</v>
+        <v>1567.06</v>
       </c>
     </row>
     <row r="130">
@@ -1967,10 +1967,10 @@
         <v>22</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45915</v>
+        <v>45920</v>
       </c>
       <c r="C130" t="n">
-        <v>1500.53</v>
+        <v>1567.06</v>
       </c>
     </row>
     <row r="131">
@@ -1978,10 +1978,10 @@
         <v>22</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45914</v>
+        <v>45919</v>
       </c>
       <c r="C131" t="n">
-        <v>1481.12</v>
+        <v>1567.06</v>
       </c>
     </row>
     <row r="132">
@@ -1989,10 +1989,10 @@
         <v>22</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45913</v>
+        <v>45918</v>
       </c>
       <c r="C132" t="n">
-        <v>1481.12</v>
+        <v>1564.1</v>
       </c>
     </row>
     <row r="133">
@@ -2000,10 +2000,10 @@
         <v>22</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="C133" t="n">
-        <v>1481.12</v>
+        <v>1499.85</v>
       </c>
     </row>
     <row r="134">
@@ -2011,10 +2011,10 @@
         <v>22</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="C134" t="n">
-        <v>1446.32</v>
+        <v>1482.49</v>
       </c>
     </row>
     <row r="135">
@@ -2022,10 +2022,10 @@
         <v>22</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="C135" t="n">
-        <v>1436.89</v>
+        <v>1500.53</v>
       </c>
     </row>
     <row r="136">
@@ -2033,10 +2033,10 @@
         <v>22</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45909</v>
+        <v>45914</v>
       </c>
       <c r="C136" t="n">
-        <v>1439.73</v>
+        <v>1481.12</v>
       </c>
     </row>
     <row r="137">
@@ -2044,10 +2044,10 @@
         <v>22</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45908</v>
+        <v>45913</v>
       </c>
       <c r="C137" t="n">
-        <v>1439.27</v>
+        <v>1481.12</v>
       </c>
     </row>
     <row r="138">
@@ -2055,10 +2055,10 @@
         <v>22</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45907</v>
+        <v>45912</v>
       </c>
       <c r="C138" t="n">
-        <v>1390.52</v>
+        <v>1481.12</v>
       </c>
     </row>
     <row r="139">
@@ -2066,10 +2066,10 @@
         <v>22</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45906</v>
+        <v>45911</v>
       </c>
       <c r="C139" t="n">
-        <v>1390.52</v>
+        <v>1446.32</v>
       </c>
     </row>
     <row r="140">
@@ -2077,10 +2077,10 @@
         <v>22</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="C140" t="n">
-        <v>1390.52</v>
+        <v>1436.89</v>
       </c>
     </row>
     <row r="141">
@@ -2088,10 +2088,10 @@
         <v>22</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="C141" t="n">
-        <v>1380.95</v>
+        <v>1439.73</v>
       </c>
     </row>
     <row r="142">
@@ -2099,10 +2099,10 @@
         <v>22</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="C142" t="n">
-        <v>1371.58</v>
+        <v>1439.27</v>
       </c>
     </row>
     <row r="143">
@@ -2110,10 +2110,10 @@
         <v>22</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>45902</v>
+        <v>45907</v>
       </c>
       <c r="C143" t="n">
-        <v>1372</v>
+        <v>1390.52</v>
       </c>
     </row>
     <row r="144">
@@ -2121,10 +2121,10 @@
         <v>22</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>45901</v>
+        <v>45906</v>
       </c>
       <c r="C144" t="n">
-        <v>1391.51</v>
+        <v>1390.52</v>
       </c>
     </row>
     <row r="145">
@@ -2132,10 +2132,10 @@
         <v>22</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45900</v>
+        <v>45905</v>
       </c>
       <c r="C145" t="n">
-        <v>1355.27</v>
+        <v>1390.52</v>
       </c>
     </row>
     <row r="146">
@@ -2143,10 +2143,10 @@
         <v>22</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>45899</v>
+        <v>45904</v>
       </c>
       <c r="C146" t="n">
-        <v>1355.27</v>
+        <v>1380.95</v>
       </c>
     </row>
     <row r="147">
@@ -2154,10 +2154,10 @@
         <v>22</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="C147" t="n">
-        <v>1355.27</v>
+        <v>1371.58</v>
       </c>
     </row>
     <row r="148">
@@ -2165,10 +2165,10 @@
         <v>22</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="C148" t="n">
-        <v>1347.64</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="149">
@@ -2176,10 +2176,10 @@
         <v>22</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
       <c r="C149" t="n">
-        <v>1354.79</v>
+        <v>1391.51</v>
       </c>
     </row>
     <row r="150">
@@ -2187,10 +2187,10 @@
         <v>22</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45895</v>
+        <v>45900</v>
       </c>
       <c r="C150" t="n">
-        <v>1354.94</v>
+        <v>1355.27</v>
       </c>
     </row>
     <row r="151">
@@ -2198,10 +2198,10 @@
         <v>22</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45894</v>
+        <v>45899</v>
       </c>
       <c r="C151" t="n">
-        <v>1361.89</v>
+        <v>1355.27</v>
       </c>
     </row>
     <row r="152">
@@ -2209,10 +2209,10 @@
         <v>22</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45893</v>
+        <v>45898</v>
       </c>
       <c r="C152" t="n">
-        <v>1336.8</v>
+        <v>1355.27</v>
       </c>
     </row>
     <row r="153">
@@ -2220,10 +2220,10 @@
         <v>22</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45892</v>
+        <v>45897</v>
       </c>
       <c r="C153" t="n">
-        <v>1336.8</v>
+        <v>1347.64</v>
       </c>
     </row>
     <row r="154">
@@ -2231,10 +2231,10 @@
         <v>22</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45891</v>
+        <v>45896</v>
       </c>
       <c r="C154" t="n">
-        <v>1333.81</v>
+        <v>1354.79</v>
       </c>
     </row>
     <row r="155">
@@ -2242,10 +2242,10 @@
         <v>22</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
       <c r="C155" t="n">
-        <v>1324.36</v>
+        <v>1354.94</v>
       </c>
     </row>
     <row r="156">
@@ -2253,10 +2253,10 @@
         <v>22</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45889</v>
+        <v>45894</v>
       </c>
       <c r="C156" t="n">
-        <v>1311.61</v>
+        <v>1361.89</v>
       </c>
     </row>
     <row r="157">
@@ -2264,10 +2264,10 @@
         <v>22</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45888</v>
+        <v>45893</v>
       </c>
       <c r="C157" t="n">
-        <v>1305.65</v>
+        <v>1336.8</v>
       </c>
     </row>
     <row r="158">
@@ -2275,10 +2275,10 @@
         <v>22</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45887</v>
+        <v>45892</v>
       </c>
       <c r="C158" t="n">
-        <v>1304</v>
+        <v>1336.8</v>
       </c>
     </row>
     <row r="159">
@@ -2286,10 +2286,10 @@
         <v>22</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45886</v>
+        <v>45891</v>
       </c>
       <c r="C159" t="n">
-        <v>1301.49</v>
+        <v>1333.81</v>
       </c>
     </row>
     <row r="160">
@@ -2297,10 +2297,10 @@
         <v>22</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45885</v>
+        <v>45890</v>
       </c>
       <c r="C160" t="n">
-        <v>1301.49</v>
+        <v>1324.36</v>
       </c>
     </row>
     <row r="161">
@@ -2308,10 +2308,10 @@
         <v>22</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45884</v>
+        <v>45889</v>
       </c>
       <c r="C161" t="n">
-        <v>1300.74</v>
+        <v>1311.61</v>
       </c>
     </row>
     <row r="162">
@@ -2319,10 +2319,10 @@
         <v>22</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="C162" t="n">
-        <v>1310.48</v>
+        <v>1305.65</v>
       </c>
     </row>
     <row r="163">
@@ -2330,10 +2330,10 @@
         <v>22</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="C163" t="n">
-        <v>1319.71</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="164">
@@ -2341,10 +2341,10 @@
         <v>22</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45881</v>
+        <v>45886</v>
       </c>
       <c r="C164" t="n">
-        <v>1324.07</v>
+        <v>1301.49</v>
       </c>
     </row>
     <row r="165">
@@ -2352,10 +2352,10 @@
         <v>22</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45880</v>
+        <v>45885</v>
       </c>
       <c r="C165" t="n">
-        <v>1328.62</v>
+        <v>1301.49</v>
       </c>
     </row>
     <row r="166">
@@ -2363,10 +2363,10 @@
         <v>22</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45879</v>
+        <v>45884</v>
       </c>
       <c r="C166" t="n">
-        <v>1336.37</v>
+        <v>1300.74</v>
       </c>
     </row>
     <row r="167">
@@ -2374,10 +2374,10 @@
         <v>22</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45878</v>
+        <v>45883</v>
       </c>
       <c r="C167" t="n">
-        <v>1336.37</v>
+        <v>1310.48</v>
       </c>
     </row>
     <row r="168">
@@ -2385,10 +2385,10 @@
         <v>22</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45877</v>
+        <v>45882</v>
       </c>
       <c r="C168" t="n">
-        <v>1336.37</v>
+        <v>1319.71</v>
       </c>
     </row>
     <row r="169">
@@ -2396,10 +2396,10 @@
         <v>22</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45876</v>
+        <v>45881</v>
       </c>
       <c r="C169" t="n">
-        <v>1334.66</v>
+        <v>1324.07</v>
       </c>
     </row>
     <row r="170">
@@ -2407,10 +2407,10 @@
         <v>22</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45875</v>
+        <v>45880</v>
       </c>
       <c r="C170" t="n">
-        <v>1337.94</v>
+        <v>1328.62</v>
       </c>
     </row>
     <row r="171">
@@ -2418,10 +2418,10 @@
         <v>22</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45874</v>
+        <v>45879</v>
       </c>
       <c r="C171" t="n">
-        <v>1348.66</v>
+        <v>1336.37</v>
       </c>
     </row>
     <row r="172">
@@ -2429,10 +2429,10 @@
         <v>22</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45873</v>
+        <v>45878</v>
       </c>
       <c r="C172" t="n">
-        <v>1361.3</v>
+        <v>1336.37</v>
       </c>
     </row>
     <row r="173">
@@ -2440,10 +2440,10 @@
         <v>22</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45872</v>
+        <v>45877</v>
       </c>
       <c r="C173" t="n">
-        <v>1366.9</v>
+        <v>1336.37</v>
       </c>
     </row>
     <row r="174">
@@ -2451,10 +2451,10 @@
         <v>22</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45871</v>
+        <v>45876</v>
       </c>
       <c r="C174" t="n">
-        <v>1366.9</v>
+        <v>1334.66</v>
       </c>
     </row>
     <row r="175">
@@ -2462,10 +2462,10 @@
         <v>22</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45870</v>
+        <v>45875</v>
       </c>
       <c r="C175" t="n">
-        <v>1366.9</v>
+        <v>1337.94</v>
       </c>
     </row>
     <row r="176">
@@ -2473,10 +2473,10 @@
         <v>22</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45869</v>
+        <v>45874</v>
       </c>
       <c r="C176" t="n">
-        <v>1358.82</v>
+        <v>1348.66</v>
       </c>
     </row>
     <row r="177">
@@ -2484,10 +2484,10 @@
         <v>22</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45868</v>
+        <v>45873</v>
       </c>
       <c r="C177" t="n">
-        <v>1320</v>
+        <v>1361.3</v>
       </c>
     </row>
     <row r="178">
@@ -2495,10 +2495,10 @@
         <v>22</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>45867</v>
+        <v>45872</v>
       </c>
       <c r="C178" t="n">
-        <v>1290</v>
+        <v>1366.9</v>
       </c>
     </row>
     <row r="179">
@@ -2506,10 +2506,10 @@
         <v>22</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45866</v>
+        <v>45871</v>
       </c>
       <c r="C179" t="n">
-        <v>1299.75</v>
+        <v>1366.9</v>
       </c>
     </row>
     <row r="180">
@@ -2517,10 +2517,10 @@
         <v>22</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45865</v>
+        <v>45870</v>
       </c>
       <c r="C180" t="n">
-        <v>1293.91</v>
+        <v>1366.9</v>
       </c>
     </row>
     <row r="181">
@@ -2528,10 +2528,10 @@
         <v>22</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45864</v>
+        <v>45869</v>
       </c>
       <c r="C181" t="n">
-        <v>1293.91</v>
+        <v>1358.82</v>
       </c>
     </row>
     <row r="182">
@@ -2539,10 +2539,10 @@
         <v>22</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>45863</v>
+        <v>45868</v>
       </c>
       <c r="C182" t="n">
-        <v>1293.91</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="183">
@@ -2550,10 +2550,10 @@
         <v>22</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>45862</v>
+        <v>45867</v>
       </c>
       <c r="C183" t="n">
-        <v>1277.13</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="184">
@@ -2561,10 +2561,10 @@
         <v>22</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>45861</v>
+        <v>45866</v>
       </c>
       <c r="C184" t="n">
-        <v>1266.99</v>
+        <v>1299.75</v>
       </c>
     </row>
     <row r="185">
@@ -2572,10 +2572,10 @@
         <v>22</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>45860</v>
+        <v>45865</v>
       </c>
       <c r="C185" t="n">
-        <v>1257.9</v>
+        <v>1293.91</v>
       </c>
     </row>
     <row r="186">
@@ -2583,10 +2583,10 @@
         <v>22</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>45859</v>
+        <v>45864</v>
       </c>
       <c r="C186" t="n">
-        <v>1289.78</v>
+        <v>1293.91</v>
       </c>
     </row>
     <row r="187">
@@ -2594,10 +2594,10 @@
         <v>22</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>45858</v>
+        <v>45863</v>
       </c>
       <c r="C187" t="n">
-        <v>1301</v>
+        <v>1293.91</v>
       </c>
     </row>
     <row r="188">
@@ -2605,10 +2605,10 @@
         <v>22</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>45857</v>
+        <v>45862</v>
       </c>
       <c r="C188" t="n">
-        <v>1301</v>
+        <v>1277.13</v>
       </c>
     </row>
     <row r="189">
@@ -2616,10 +2616,10 @@
         <v>22</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="C189" t="n">
-        <v>1301</v>
+        <v>1266.99</v>
       </c>
     </row>
     <row r="190">
@@ -2627,10 +2627,10 @@
         <v>22</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="C190" t="n">
-        <v>1285.59</v>
+        <v>1257.9</v>
       </c>
     </row>
     <row r="191">
@@ -2638,10 +2638,10 @@
         <v>22</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="C191" t="n">
-        <v>1274</v>
+        <v>1289.78</v>
       </c>
     </row>
     <row r="192">
@@ -2649,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>45853</v>
+        <v>45858</v>
       </c>
       <c r="C192" t="n">
-        <v>1279.56</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="193">
@@ -2660,10 +2660,10 @@
         <v>22</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>45852</v>
+        <v>45857</v>
       </c>
       <c r="C193" t="n">
-        <v>1295.52</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="194">
@@ -2671,10 +2671,10 @@
         <v>22</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>45851</v>
+        <v>45856</v>
       </c>
       <c r="C194" t="n">
-        <v>1275.58</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="195">
@@ -2682,10 +2682,10 @@
         <v>22</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>45850</v>
+        <v>45855</v>
       </c>
       <c r="C195" t="n">
-        <v>1275.58</v>
+        <v>1285.59</v>
       </c>
     </row>
     <row r="196">
@@ -2693,10 +2693,10 @@
         <v>22</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>45849</v>
+        <v>45854</v>
       </c>
       <c r="C196" t="n">
-        <v>1275.58</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="197">
@@ -2704,10 +2704,10 @@
         <v>22</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>45848</v>
+        <v>45853</v>
       </c>
       <c r="C197" t="n">
-        <v>1273.83</v>
+        <v>1279.56</v>
       </c>
     </row>
     <row r="198">
@@ -2715,10 +2715,10 @@
         <v>22</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="C198" t="n">
-        <v>1275.55</v>
+        <v>1295.52</v>
       </c>
     </row>
     <row r="199">
@@ -2726,10 +2726,10 @@
         <v>22</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>45846</v>
+        <v>45851</v>
       </c>
       <c r="C199" t="n">
-        <v>1261.75</v>
+        <v>1275.58</v>
       </c>
     </row>
     <row r="200">
@@ -2737,10 +2737,10 @@
         <v>22</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>45845</v>
+        <v>45850</v>
       </c>
       <c r="C200" t="n">
-        <v>1279.75</v>
+        <v>1275.58</v>
       </c>
     </row>
     <row r="201">
@@ -2748,10 +2748,10 @@
         <v>22</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="C201" t="n">
-        <v>1249.12</v>
+        <v>1275.58</v>
       </c>
     </row>
     <row r="202">
@@ -2759,10 +2759,10 @@
         <v>22</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>45841</v>
+        <v>45848</v>
       </c>
       <c r="C202" t="n">
-        <v>1242.12</v>
+        <v>1273.83</v>
       </c>
     </row>
     <row r="203">
@@ -2770,10 +2770,10 @@
         <v>22</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>45840</v>
+        <v>45847</v>
       </c>
       <c r="C203" t="n">
-        <v>1235.72</v>
+        <v>1275.55</v>
       </c>
     </row>
     <row r="204">
@@ -2781,10 +2781,10 @@
         <v>22</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>45839</v>
+        <v>45846</v>
       </c>
       <c r="C204" t="n">
-        <v>1233.08</v>
+        <v>1261.75</v>
       </c>
     </row>
     <row r="205">
@@ -2792,10 +2792,10 @@
         <v>22</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>45838</v>
+        <v>45845</v>
       </c>
       <c r="C205" t="n">
-        <v>1210.25</v>
+        <v>1279.75</v>
       </c>
     </row>
     <row r="206">
@@ -2803,10 +2803,10 @@
         <v>22</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="C206" t="n">
-        <v>1203.26</v>
+        <v>1249.12</v>
       </c>
     </row>
     <row r="207">
@@ -2814,10 +2814,10 @@
         <v>22</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="C207" t="n">
-        <v>1200.16</v>
+        <v>1242.12</v>
       </c>
     </row>
     <row r="208">
@@ -2825,10 +2825,10 @@
         <v>22</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="C208" t="n">
-        <v>1199.2</v>
+        <v>1235.72</v>
       </c>
     </row>
     <row r="209">
@@ -2836,10 +2836,10 @@
         <v>22</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="C209" t="n">
-        <v>1183.95</v>
+        <v>1233.08</v>
       </c>
     </row>
     <row r="210">
@@ -2847,10 +2847,10 @@
         <v>22</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="C210" t="n">
-        <v>1182.97</v>
+        <v>1210.25</v>
       </c>
     </row>
     <row r="211">
@@ -2858,10 +2858,10 @@
         <v>22</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>45827</v>
+        <v>45835</v>
       </c>
       <c r="C211" t="n">
-        <v>1157.71</v>
+        <v>1203.26</v>
       </c>
     </row>
     <row r="212">
@@ -2869,10 +2869,10 @@
         <v>22</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>45826</v>
+        <v>45834</v>
       </c>
       <c r="C212" t="n">
-        <v>1172.16</v>
+        <v>1200.16</v>
       </c>
     </row>
     <row r="213">
@@ -2880,10 +2880,10 @@
         <v>22</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>45825</v>
+        <v>45833</v>
       </c>
       <c r="C213" t="n">
-        <v>1204.75</v>
+        <v>1199.2</v>
       </c>
     </row>
     <row r="214">
@@ -2891,10 +2891,10 @@
         <v>22</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="C214" t="n">
-        <v>1205.65</v>
+        <v>1183.95</v>
       </c>
     </row>
     <row r="215">
@@ -2902,10 +2902,10 @@
         <v>22</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>45820</v>
+        <v>45831</v>
       </c>
       <c r="C215" t="n">
-        <v>1187.02</v>
+        <v>1182.97</v>
       </c>
     </row>
     <row r="216">
@@ -2913,10 +2913,10 @@
         <v>22</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>45819</v>
+        <v>45827</v>
       </c>
       <c r="C216" t="n">
-        <v>1193.28</v>
+        <v>1157.71</v>
       </c>
     </row>
     <row r="217">
@@ -2924,10 +2924,10 @@
         <v>22</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="C217" t="n">
-        <v>1193.85</v>
+        <v>1172.16</v>
       </c>
     </row>
     <row r="218">
@@ -2935,10 +2935,10 @@
         <v>22</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="C218" t="n">
-        <v>1198.27</v>
+        <v>1204.75</v>
       </c>
     </row>
     <row r="219">
@@ -2946,10 +2946,10 @@
         <v>22</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="C219" t="n">
-        <v>1194.81</v>
+        <v>1205.65</v>
       </c>
     </row>
     <row r="220">
@@ -2957,10 +2957,10 @@
         <v>22</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="C220" t="n">
-        <v>1193.41</v>
+        <v>1187.02</v>
       </c>
     </row>
     <row r="221">
@@ -2968,10 +2968,10 @@
         <v>22</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="C221" t="n">
-        <v>1201.49</v>
+        <v>1193.28</v>
       </c>
     </row>
     <row r="222">
@@ -2979,10 +2979,10 @@
         <v>22</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="C222" t="n">
-        <v>1199.76</v>
+        <v>1193.85</v>
       </c>
     </row>
     <row r="223">
@@ -2990,10 +2990,10 @@
         <v>22</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="C223" t="n">
-        <v>1196.18</v>
+        <v>1198.27</v>
       </c>
     </row>
     <row r="224">
@@ -3001,10 +3001,10 @@
         <v>22</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="C224" t="n">
-        <v>1204.92</v>
+        <v>1194.81</v>
       </c>
     </row>
     <row r="225">
@@ -3012,10 +3012,10 @@
         <v>22</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="C225" t="n">
-        <v>1204.92</v>
+        <v>1193.41</v>
       </c>
     </row>
     <row r="226">
@@ -3023,10 +3023,10 @@
         <v>22</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>45806</v>
+        <v>45812</v>
       </c>
       <c r="C226" t="n">
-        <v>1194.22</v>
+        <v>1201.49</v>
       </c>
     </row>
     <row r="227">
@@ -3034,10 +3034,10 @@
         <v>22</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="C227" t="n">
-        <v>1175.33</v>
+        <v>1199.76</v>
       </c>
     </row>
     <row r="228">
@@ -3045,10 +3045,10 @@
         <v>22</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>45804</v>
+        <v>45810</v>
       </c>
       <c r="C228" t="n">
-        <v>1171.98</v>
+        <v>1196.18</v>
       </c>
     </row>
     <row r="229">
@@ -3056,10 +3056,10 @@
         <v>22</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>45803</v>
+        <v>45808</v>
       </c>
       <c r="C229" t="n">
-        <v>1151.25</v>
+        <v>1204.92</v>
       </c>
     </row>
     <row r="230">
@@ -3067,10 +3067,10 @@
         <v>22</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="C230" t="n">
-        <v>1165.18</v>
+        <v>1204.92</v>
       </c>
     </row>
     <row r="231">
@@ -3078,10 +3078,10 @@
         <v>22</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="C231" t="n">
-        <v>1163.2</v>
+        <v>1194.22</v>
       </c>
     </row>
     <row r="232">
@@ -3089,10 +3089,10 @@
         <v>22</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="C232" t="n">
-        <v>1162.14</v>
+        <v>1175.33</v>
       </c>
     </row>
     <row r="233">
@@ -3100,10 +3100,10 @@
         <v>22</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="C233" t="n">
-        <v>1171.71</v>
+        <v>1171.98</v>
       </c>
     </row>
     <row r="234">
@@ -3111,10 +3111,10 @@
         <v>22</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="C234" t="n">
-        <v>1162.59</v>
+        <v>1151.25</v>
       </c>
     </row>
     <row r="235">
@@ -3122,10 +3122,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="C235" t="n">
-        <v>1178.82</v>
+        <v>1165.18</v>
       </c>
     </row>
     <row r="236">
@@ -3133,10 +3133,10 @@
         <v>22</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="C236" t="n">
-        <v>1166.04</v>
+        <v>1163.2</v>
       </c>
     </row>
     <row r="237">
@@ -3144,10 +3144,10 @@
         <v>22</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>45790</v>
+        <v>45798</v>
       </c>
       <c r="C237" t="n">
-        <v>1158.28</v>
+        <v>1162.14</v>
       </c>
     </row>
     <row r="238">
@@ -3155,10 +3155,10 @@
         <v>22</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>45789</v>
+        <v>45797</v>
       </c>
       <c r="C238" t="n">
-        <v>1155.98</v>
+        <v>1171.71</v>
       </c>
     </row>
     <row r="239">
@@ -3166,10 +3166,10 @@
         <v>22</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>45786</v>
+        <v>45796</v>
       </c>
       <c r="C239" t="n">
-        <v>1159.25</v>
+        <v>1162.59</v>
       </c>
     </row>
     <row r="240">
@@ -3177,10 +3177,10 @@
         <v>22</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>45785</v>
+        <v>45793</v>
       </c>
       <c r="C240" t="n">
-        <v>1157.44</v>
+        <v>1178.82</v>
       </c>
     </row>
     <row r="241">
@@ -3188,10 +3188,10 @@
         <v>22</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>45784</v>
+        <v>45792</v>
       </c>
       <c r="C241" t="n">
-        <v>1165.4</v>
+        <v>1166.04</v>
       </c>
     </row>
     <row r="242">
@@ -3199,10 +3199,10 @@
         <v>22</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>45783</v>
+        <v>45790</v>
       </c>
       <c r="C242" t="n">
-        <v>1211.31</v>
+        <v>1158.28</v>
       </c>
     </row>
     <row r="243">
@@ -3210,10 +3210,10 @@
         <v>22</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>45782</v>
+        <v>45789</v>
       </c>
       <c r="C243" t="n">
-        <v>1211.65</v>
+        <v>1155.98</v>
       </c>
     </row>
     <row r="244">
@@ -3221,10 +3221,10 @@
         <v>22</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>45779</v>
+        <v>45786</v>
       </c>
       <c r="C244" t="n">
-        <v>1278.79</v>
+        <v>1159.25</v>
       </c>
     </row>
     <row r="245">
@@ -3232,10 +3232,10 @@
         <v>22</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>45777</v>
+        <v>45785</v>
       </c>
       <c r="C245" t="n">
-        <v>1195.73</v>
+        <v>1157.44</v>
       </c>
     </row>
     <row r="246">
@@ -3243,10 +3243,10 @@
         <v>22</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>45776</v>
+        <v>45784</v>
       </c>
       <c r="C246" t="n">
-        <v>1188.67</v>
+        <v>1165.4</v>
       </c>
     </row>
     <row r="247">
@@ -3254,10 +3254,10 @@
         <v>22</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>45775</v>
+        <v>45783</v>
       </c>
       <c r="C247" t="n">
-        <v>1190.97</v>
+        <v>1211.31</v>
       </c>
     </row>
     <row r="248">
@@ -3265,10 +3265,10 @@
         <v>22</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>45772</v>
+        <v>45782</v>
       </c>
       <c r="C248" t="n">
-        <v>1201.15</v>
+        <v>1211.65</v>
       </c>
     </row>
     <row r="249">
@@ -3276,10 +3276,10 @@
         <v>22</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>45771</v>
+        <v>45779</v>
       </c>
       <c r="C249" t="n">
-        <v>1199.67</v>
+        <v>1278.79</v>
       </c>
     </row>
     <row r="250">
@@ -3287,10 +3287,10 @@
         <v>22</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>45770</v>
+        <v>45777</v>
       </c>
       <c r="C250" t="n">
-        <v>1181.79</v>
+        <v>1195.73</v>
       </c>
     </row>
     <row r="251">
@@ -3298,10 +3298,10 @@
         <v>22</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>45769</v>
+        <v>45776</v>
       </c>
       <c r="C251" t="n">
-        <v>1153.59</v>
+        <v>1188.67</v>
       </c>
     </row>
     <row r="252">
@@ -3309,10 +3309,10 @@
         <v>22</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>45768</v>
+        <v>45775</v>
       </c>
       <c r="C252" t="n">
-        <v>1132.46</v>
+        <v>1190.97</v>
       </c>
     </row>
     <row r="253">
@@ -3320,10 +3320,10 @@
         <v>22</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>45763</v>
+        <v>45772</v>
       </c>
       <c r="C253" t="n">
-        <v>1177.11</v>
+        <v>1201.15</v>
       </c>
     </row>
     <row r="254">
@@ -3331,10 +3331,10 @@
         <v>22</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>45762</v>
+        <v>45771</v>
       </c>
       <c r="C254" t="n">
-        <v>1242</v>
+        <v>1199.67</v>
       </c>
     </row>
     <row r="255">
@@ -3342,10 +3342,10 @@
         <v>22</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>45761</v>
+        <v>45770</v>
       </c>
       <c r="C255" t="n">
-        <v>1256.04</v>
+        <v>1181.79</v>
       </c>
     </row>
     <row r="256">
@@ -3353,10 +3353,10 @@
         <v>22</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>45758</v>
+        <v>45769</v>
       </c>
       <c r="C256" t="n">
-        <v>1340.47</v>
+        <v>1153.59</v>
       </c>
     </row>
     <row r="257">
@@ -3364,10 +3364,10 @@
         <v>22</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>45757</v>
+        <v>45768</v>
       </c>
       <c r="C257" t="n">
-        <v>1367.3</v>
+        <v>1132.46</v>
       </c>
     </row>
     <row r="258">
@@ -3375,10 +3375,10 @@
         <v>22</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>45756</v>
+        <v>45763</v>
       </c>
       <c r="C258" t="n">
-        <v>1342.03</v>
+        <v>1177.11</v>
       </c>
     </row>
     <row r="259">
@@ -3386,10 +3386,10 @@
         <v>22</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>45755</v>
+        <v>45762</v>
       </c>
       <c r="C259" t="n">
-        <v>1368.39</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="260">
@@ -3397,10 +3397,10 @@
         <v>22</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>45754</v>
+        <v>45761</v>
       </c>
       <c r="C260" t="n">
-        <v>1360.25</v>
+        <v>1256.04</v>
       </c>
     </row>
     <row r="261">
@@ -3408,10 +3408,10 @@
         <v>22</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="C261" t="n">
-        <v>1337.05</v>
+        <v>1340.47</v>
       </c>
     </row>
     <row r="262">
@@ -3419,10 +3419,10 @@
         <v>22</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="C262" t="n">
-        <v>1320.37</v>
+        <v>1367.3</v>
       </c>
     </row>
     <row r="263">
@@ -3430,10 +3430,10 @@
         <v>22</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>45748</v>
+        <v>45756</v>
       </c>
       <c r="C263" t="n">
-        <v>1307.92</v>
+        <v>1342.03</v>
       </c>
     </row>
     <row r="264">
@@ -3441,10 +3441,10 @@
         <v>22</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>45747</v>
+        <v>45755</v>
       </c>
       <c r="C264" t="n">
-        <v>1319.46</v>
+        <v>1368.39</v>
       </c>
     </row>
     <row r="265">
@@ -3452,10 +3452,10 @@
         <v>22</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>45744</v>
+        <v>45754</v>
       </c>
       <c r="C265" t="n">
-        <v>1309.15</v>
+        <v>1360.25</v>
       </c>
     </row>
     <row r="266">
@@ -3463,10 +3463,10 @@
         <v>22</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>45743</v>
+        <v>45751</v>
       </c>
       <c r="C266" t="n">
-        <v>1298.77</v>
+        <v>1337.05</v>
       </c>
     </row>
     <row r="267">
@@ -3474,10 +3474,10 @@
         <v>22</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>45742</v>
+        <v>45750</v>
       </c>
       <c r="C267" t="n">
-        <v>1299.63</v>
+        <v>1320.37</v>
       </c>
     </row>
     <row r="268">
@@ -3485,10 +3485,10 @@
         <v>22</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>45741</v>
+        <v>45748</v>
       </c>
       <c r="C268" t="n">
-        <v>1297.05</v>
+        <v>1307.92</v>
       </c>
     </row>
     <row r="269">
@@ -3496,10 +3496,10 @@
         <v>22</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>45737</v>
+        <v>45747</v>
       </c>
       <c r="C269" t="n">
-        <v>1286.95</v>
+        <v>1319.46</v>
       </c>
     </row>
     <row r="270">
@@ -3507,10 +3507,10 @@
         <v>22</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>45736</v>
+        <v>45744</v>
       </c>
       <c r="C270" t="n">
-        <v>1283.89</v>
+        <v>1309.15</v>
       </c>
     </row>
     <row r="271">
@@ -3518,10 +3518,10 @@
         <v>22</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>45735</v>
+        <v>45743</v>
       </c>
       <c r="C271" t="n">
-        <v>1291.86</v>
+        <v>1298.77</v>
       </c>
     </row>
     <row r="272">
@@ -3529,10 +3529,10 @@
         <v>22</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>45734</v>
+        <v>45742</v>
       </c>
       <c r="C272" t="n">
-        <v>1299.01</v>
+        <v>1299.63</v>
       </c>
     </row>
     <row r="273">
@@ -3540,10 +3540,10 @@
         <v>22</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>45733</v>
+        <v>45741</v>
       </c>
       <c r="C273" t="n">
-        <v>1254.99</v>
+        <v>1297.05</v>
       </c>
     </row>
     <row r="274">
@@ -3551,10 +3551,10 @@
         <v>22</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C274" t="n">
-        <v>1239.88</v>
+        <v>1286.95</v>
       </c>
     </row>
     <row r="275">
@@ -3562,10 +3562,10 @@
         <v>22</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>45729</v>
+        <v>45736</v>
       </c>
       <c r="C275" t="n">
-        <v>1233.48</v>
+        <v>1283.89</v>
       </c>
     </row>
     <row r="276">
@@ -3573,10 +3573,10 @@
         <v>22</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>45728</v>
+        <v>45735</v>
       </c>
       <c r="C276" t="n">
-        <v>1229.63</v>
+        <v>1291.86</v>
       </c>
     </row>
     <row r="277">
@@ -3584,10 +3584,10 @@
         <v>22</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>45727</v>
+        <v>45734</v>
       </c>
       <c r="C277" t="n">
-        <v>1226.42</v>
+        <v>1299.01</v>
       </c>
     </row>
     <row r="278">
@@ -3595,10 +3595,10 @@
         <v>22</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>45726</v>
+        <v>45733</v>
       </c>
       <c r="C278" t="n">
-        <v>1231.63</v>
+        <v>1254.99</v>
       </c>
     </row>
     <row r="279">
@@ -3606,10 +3606,10 @@
         <v>22</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C279" t="n">
-        <v>1219.73</v>
+        <v>1239.88</v>
       </c>
     </row>
     <row r="280">
@@ -3617,10 +3617,10 @@
         <v>22</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="C280" t="n">
-        <v>1227.65</v>
+        <v>1233.48</v>
       </c>
     </row>
     <row r="281">
@@ -3628,10 +3628,10 @@
         <v>22</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>45721</v>
+        <v>45728</v>
       </c>
       <c r="C281" t="n">
-        <v>1241.44</v>
+        <v>1229.63</v>
       </c>
     </row>
     <row r="282">
@@ -3639,10 +3639,10 @@
         <v>22</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>45716</v>
+        <v>45727</v>
       </c>
       <c r="C282" t="n">
-        <v>1219.98</v>
+        <v>1226.42</v>
       </c>
     </row>
     <row r="283">
@@ -3650,10 +3650,10 @@
         <v>22</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>45715</v>
+        <v>45726</v>
       </c>
       <c r="C283" t="n">
-        <v>1224.07</v>
+        <v>1231.63</v>
       </c>
     </row>
     <row r="284">
@@ -3661,10 +3661,10 @@
         <v>22</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>45714</v>
+        <v>45723</v>
       </c>
       <c r="C284" t="n">
-        <v>1219.99</v>
+        <v>1219.73</v>
       </c>
     </row>
     <row r="285">
@@ -3672,10 +3672,10 @@
         <v>22</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>45713</v>
+        <v>45722</v>
       </c>
       <c r="C285" t="n">
-        <v>1208.21</v>
+        <v>1227.65</v>
       </c>
     </row>
     <row r="286">
@@ -3683,10 +3683,10 @@
         <v>22</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>45712</v>
+        <v>45721</v>
       </c>
       <c r="C286" t="n">
-        <v>1212.99</v>
+        <v>1241.44</v>
       </c>
     </row>
     <row r="287">
@@ -3694,10 +3694,10 @@
         <v>22</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>45709</v>
+        <v>45716</v>
       </c>
       <c r="C287" t="n">
-        <v>1219.34</v>
+        <v>1219.98</v>
       </c>
     </row>
     <row r="288">
@@ -3705,10 +3705,10 @@
         <v>22</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>45708</v>
+        <v>45715</v>
       </c>
       <c r="C288" t="n">
-        <v>1211.81</v>
+        <v>1224.07</v>
       </c>
     </row>
     <row r="289">
@@ -3716,10 +3716,10 @@
         <v>22</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>45707</v>
+        <v>45714</v>
       </c>
       <c r="C289" t="n">
-        <v>1207.72</v>
+        <v>1219.99</v>
       </c>
     </row>
     <row r="290">
@@ -3727,10 +3727,10 @@
         <v>22</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>45706</v>
+        <v>45713</v>
       </c>
       <c r="C290" t="n">
-        <v>1212.89</v>
+        <v>1208.21</v>
       </c>
     </row>
     <row r="291">
@@ -3738,10 +3738,10 @@
         <v>22</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="C291" t="n">
-        <v>1210.61</v>
+        <v>1212.99</v>
       </c>
     </row>
     <row r="292">
@@ -3749,10 +3749,10 @@
         <v>22</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>45702</v>
+        <v>45709</v>
       </c>
       <c r="C292" t="n">
-        <v>1197.91</v>
+        <v>1219.34</v>
       </c>
     </row>
     <row r="293">
@@ -3760,10 +3760,10 @@
         <v>22</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>45701</v>
+        <v>45708</v>
       </c>
       <c r="C293" t="n">
-        <v>1188.85</v>
+        <v>1211.81</v>
       </c>
     </row>
     <row r="294">
@@ -3771,10 +3771,10 @@
         <v>22</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>45700</v>
+        <v>45707</v>
       </c>
       <c r="C294" t="n">
-        <v>1184.33</v>
+        <v>1207.72</v>
       </c>
     </row>
     <row r="295">
@@ -3782,10 +3782,10 @@
         <v>22</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>45699</v>
+        <v>45706</v>
       </c>
       <c r="C295" t="n">
-        <v>1185.28</v>
+        <v>1212.89</v>
       </c>
     </row>
     <row r="296">
@@ -3793,10 +3793,10 @@
         <v>22</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>45698</v>
+        <v>45705</v>
       </c>
       <c r="C296" t="n">
-        <v>1183.19</v>
+        <v>1210.61</v>
       </c>
     </row>
     <row r="297">
@@ -3804,10 +3804,10 @@
         <v>22</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="C297" t="n">
-        <v>1202.22</v>
+        <v>1197.91</v>
       </c>
     </row>
     <row r="298">
@@ -3815,10 +3815,10 @@
         <v>22</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>45694</v>
+        <v>45701</v>
       </c>
       <c r="C298" t="n">
-        <v>1199.49</v>
+        <v>1188.85</v>
       </c>
     </row>
     <row r="299">
@@ -3826,10 +3826,10 @@
         <v>22</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>45693</v>
+        <v>45700</v>
       </c>
       <c r="C299" t="n">
-        <v>1200.1</v>
+        <v>1184.33</v>
       </c>
     </row>
     <row r="300">
@@ -3837,10 +3837,10 @@
         <v>22</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>45692</v>
+        <v>45699</v>
       </c>
       <c r="C300" t="n">
-        <v>1198.74</v>
+        <v>1185.28</v>
       </c>
     </row>
     <row r="301">
@@ -3848,10 +3848,10 @@
         <v>22</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>45691</v>
+        <v>45698</v>
       </c>
       <c r="C301" t="n">
-        <v>1195.74</v>
+        <v>1183.19</v>
       </c>
     </row>
     <row r="302">
@@ -3859,10 +3859,10 @@
         <v>22</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>45688</v>
+        <v>45695</v>
       </c>
       <c r="C302" t="n">
-        <v>1185.41</v>
+        <v>1202.22</v>
       </c>
     </row>
     <row r="303">
@@ -3870,10 +3870,10 @@
         <v>22</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="C303" t="n">
-        <v>1178.77</v>
+        <v>1199.49</v>
       </c>
     </row>
     <row r="304">
@@ -3881,10 +3881,10 @@
         <v>22</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>45686</v>
+        <v>45693</v>
       </c>
       <c r="C304" t="n">
-        <v>1183.75</v>
+        <v>1200.1</v>
       </c>
     </row>
     <row r="305">
@@ -3892,10 +3892,10 @@
         <v>22</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>45685</v>
+        <v>45692</v>
       </c>
       <c r="C305" t="n">
-        <v>1176.64</v>
+        <v>1198.74</v>
       </c>
     </row>
     <row r="306">
@@ -3903,10 +3903,10 @@
         <v>22</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="C306" t="n">
-        <v>1178.17</v>
+        <v>1195.74</v>
       </c>
     </row>
     <row r="307">
@@ -3914,10 +3914,10 @@
         <v>22</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>45681</v>
+        <v>45688</v>
       </c>
       <c r="C307" t="n">
-        <v>1162.79</v>
+        <v>1185.41</v>
       </c>
     </row>
     <row r="308">
@@ -3925,10 +3925,10 @@
         <v>22</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>45680</v>
+        <v>45687</v>
       </c>
       <c r="C308" t="n">
-        <v>1188.44</v>
+        <v>1178.77</v>
       </c>
     </row>
     <row r="309">
@@ -3936,10 +3936,10 @@
         <v>22</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>45679</v>
+        <v>45686</v>
       </c>
       <c r="C309" t="n">
-        <v>1189.71</v>
+        <v>1183.75</v>
       </c>
     </row>
     <row r="310">
@@ -3947,10 +3947,21 @@
         <v>22</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>45678</v>
+        <v>45685</v>
       </c>
       <c r="C310" t="n">
-        <v>1187.52</v>
+        <v>1176.64</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>22</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1178.17</v>
       </c>
     </row>
   </sheetData>
